--- a/biology/Histoire de la zoologie et de la botanique/Paul-Marie_de_Peyerimhoff_de_Fontenelle/Paul-Marie_de_Peyerimhoff_de_Fontenelle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul-Marie_de_Peyerimhoff_de_Fontenelle/Paul-Marie_de_Peyerimhoff_de_Fontenelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul-Marie de Peyerimhoff de Fontenelle est un naturaliste, botaniste et entomologiste français, né le 7 octobre 1873 à Colmar (Haut-Rhin) et mort le 2 janvier 1957.
 Ses travaux sur la faune entomologique cavernicole, notamment dans les Basses-Alpes, font de lui un biospéologue remarquable.
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul de Peyerimhoff est le deuxième fils de Henri Peyrerimhoff de Fontenelle, maire de Colmar.
 Paul-Marie de Peyerimhoff de Fontenelle fait ses études au collège Saint-Sigisbert à Nancy, et plus tard à l'école des Eaux et forêts de la même ville. Il commence alors à s'intéresser à l'entomologie ; puis en 1896, il est nommé Garde général des Eaux et forêts à Senones dans les Vosges. Vers 1897, il est nommé ingénieur de Eaux et forêts à Digne (Basses-Alpes).
@@ -521,8 +535,8 @@
 Peyerimhoff rencontre Jean Sainte-Claire Deville, un lieutenant d'artillerie qui se trouvait à Nice à cette période et qui avec le temps est devenu un entomologiste renommé.
 Il part pour l’Algérie en 1903 où il est nommé conservateur des Eaux et forêts à Alger. En 1935, Peyerimhoff est le directeur de l'institution qu'il dirige jusqu'à sa retraite en 1937.
 Peyerimhoff devient Inspecteur général honoraire du département des Eaux et forêts ; il est également fait officier de la Légion d'honneur.
-Il s’intéresse aux insectes (principalement des coléoptères) et explore les grottes du pays, notamment celles du Djurdjura (Algérie)[1].
-Il décrit de nombreuses espèces qui portent son nom avant de s’éteindre en 1957[2].
+Il s’intéresse aux insectes (principalement des coléoptères) et explore les grottes du pays, notamment celles du Djurdjura (Algérie).
+Il décrit de nombreuses espèces qui portent son nom avant de s’éteindre en 1957.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Recherches dans les Basses-Alpes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si Pierre Martel est le premier à dresser un inventaire spéléologique des Basses-Alpes (1952), l’entomologiste Paul de Peyerimhoff est le premier à explorer, d'une manière systématique, les cavités de la partie est du département des Basses-Alpes[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si Pierre Martel est le premier à dresser un inventaire spéléologique des Basses-Alpes (1952), l’entomologiste Paul de Peyerimhoff est le premier à explorer, d'une manière systématique, les cavités de la partie est du département des Basses-Alpes,.
 Au cours de ses nombreuses visites, Peyerimhoff avait notamment remarqué qu'à partir d'une certaine altitude, la grande sauterelle des cavernes (Dolichopoda azami Saulcy, 1893) ne colonisait plus les grottes. Avec le concours de forestiers, notamment l'inspecteur des Eaux et forêts de Digne, il a pu se rendre dans des grottes connues seulement des bergers ou chasseurs.
 Paul de Peyerimhoff a visité une vingtaine de cavités dans le département des Basses-Alpes. D'une manière étonnante, ces cavités n'ont pas toutes été identifiées ou inventoriées par les spéléologues. Ceci est dû à la géographie du département des Alpes-de-Haute-Provence, aujourd'hui moins peuplé et beaucoup plus boisé.
 </t>
@@ -584,7 +600,9 @@
           <t>Liste des cavités des Alpes-de-Haute-Provence visitées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des cavités visitées par Paul de Peyerimhoff suit avec leur nom actuel.
 pertuis de Méailles ou de la Goumina = trou du Pertus à Méailles
@@ -645,8 +663,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liste partielle des publications
-Peyerimhoff Paul de - &amp; Sainte-Claire Deville Jean (1901) - Coléoptères nouveaux ou peu connus trouvés dans les Alpes-Maritimes et les Basses-Alpes, I - Description des espèces nouvelles, L’Abeille, XXX : pp. 53-54.
+          <t>Liste partielle des publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Peyerimhoff Paul de - &amp; Sainte-Claire Deville Jean (1901) - Coléoptères nouveaux ou peu connus trouvés dans les Alpes-Maritimes et les Basses-Alpes, I - Description des espèces nouvelles, L’Abeille, XXX : pp. 53-54.
 Peyerimhoff Paul de - (1902) - Monsieur Bergeret dans les Basses-Alpes.
 Peyerimhoff Paul de - (1904-1908) - Coléoptères cavernicoles inédits recueillis dans les Basses-Alpes. Première note : Carabidae. Bulletin de la Société entomologique de France, 13 : pp. 201-203. (Pertuis de Méailles ou de la Goumina, grotte de Cousson à Digne, traou de Guille à Péoure d’Esclangon).
 Peyerimhoff P. (1906) - Recherches sur la faune cavernicole des Basses-Alpes. Annales de la Société entomologique de France, 75 : pp. 203-222.
